--- a/templates/dataplant/Growth_GEO_minimal.xlsx
+++ b/templates/dataplant/Growth_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{762364C4-92B1-4FC5-B140-7C1A74F9AC20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EAD8EB3-5C0E-40B0-8BCD-C72D04FE2DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="580" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{2D1671A6-E5E6-4E90-817E-C23847CD9BD1}"/>
   </bookViews>
   <sheets>
     <sheet name="Growth" sheetId="1" r:id="rId1"/>
@@ -489,10 +489,10 @@
     <t>RPTU Kaiserslautern - CSB</t>
   </si>
   <si>
-    <t>annotationTableUnluckyVampirebat89</t>
-  </si>
-  <si>
     <t>Growth</t>
+  </si>
+  <si>
+    <t>annotationTableUnluckyVampirebat90</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat89" displayName="annotationTableUnluckyVampirebat89" ref="A1:W7" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}" name="annotationTableUnluckyVampirebat90" displayName="annotationTableUnluckyVampirebat90" ref="A1:W7" totalsRowShown="0">
   <autoFilter ref="A1:W7" xr:uid="{A78356C9-302F-48B0-8883-64096E4E68DC}"/>
   <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{109E9A2A-74AF-4992-BC42-D1BBEEE95875}" name="Source Name"/>
@@ -1191,7 +1191,7 @@
   <dimension ref="A1:ER7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1715,7 +1715,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>23</v>
